--- a/src/test/resources/temp.xlsx
+++ b/src/test/resources/temp.xlsx
@@ -388,4 +388,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml>
+</file>
+
+<file path=xl/worksheets/sheet8.xml>
+</file>
+
+<file path=xl/worksheets/sheet9.xml>
 </file>
--- a/src/test/resources/temp.xlsx
+++ b/src/test/resources/temp.xlsx
@@ -354,6 +354,9 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/src/test/resources/temp.xlsx
+++ b/src/test/resources/temp.xlsx
@@ -357,6 +357,9 @@
 <file path=xl/worksheets/sheet10.xml>
 </file>
 
+<file path=xl/worksheets/sheet11.xml>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
